--- a/csv/review.xlsx
+++ b/csv/review.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://dhbwstg-my.sharepoint.com/personal/inf18086_lehre_dhbw-stuttgart_de/Documents/Studium/Semester 4/Database/MUIC-restaurant-guide/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\claben\OneDrive - Hewlett Packard Enterprise\Uni\3. Semester\DB\Project\MUIC-restaurant-guide\csv\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2" documentId="8_{40092843-6C5D-47A3-9385-C335125EC8A5}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{C37AC13E-EF32-4A6B-87FE-A3FD3E89077D}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="22284" windowHeight="13176" xr2:uid="{3D7EFEA7-8745-4C98-BBCF-866C108F5999}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="22284" windowHeight="13176"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -84,7 +83,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -125,8 +124,8 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFill="1" applyProtection="1"/>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
-    <cellStyle name="Standard 2" xfId="1" xr:uid="{41904129-6FE2-4522-A946-AA21DAB03844}"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Standard 2" xfId="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -437,17 +436,18 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B555B8F-4FF6-4770-9245-ACE1D330C0C0}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="4" max="4" width="12.88671875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="18" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="22.88671875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
@@ -555,7 +555,7 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C6">
         <v>6</v>
@@ -582,6 +582,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Dokument" ma:contentTypeID="0x010100DC82BB9D13200C4A8C40DFD5CFF2538E" ma:contentTypeVersion="8" ma:contentTypeDescription="Ein neues Dokument erstellen." ma:contentTypeScope="" ma:versionID="6b2a8341c6959f9f168a731bc5ed52d2">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="9f5ecd72-c3c0-49f2-bf4f-999d7002fd95" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="e7f309e919d4988f782f725d344996ea" ns3:_="">
     <xsd:import namespace="9f5ecd72-c3c0-49f2-bf4f-999d7002fd95"/>
@@ -751,22 +766,31 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BA15248B-8020-444E-991F-CC03F05E9DD6}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="9f5ecd72-c3c0-49f2-bf4f-999d7002fd95"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5B7402EF-C550-4E3A-BE67-00AA8DE38AA2}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2A27FBB7-95A9-4F36-B256-FDCC0E6C4DEE}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -782,28 +806,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5B7402EF-C550-4E3A-BE67-00AA8DE38AA2}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BA15248B-8020-444E-991F-CC03F05E9DD6}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="9f5ecd72-c3c0-49f2-bf4f-999d7002fd95"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>